--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5179">
   <si>
     <t>translation_group</t>
   </si>
@@ -15508,12 +15508,6 @@
   </si>
   <si>
     <t xml:space="preserve"> aviseringar</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15900,17 +15894,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54557,18 +54551,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5163</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5164</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54578,10 +54564,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="D2763" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54592,10 +54578,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="D2764" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54606,10 +54592,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="D2765" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54620,10 +54606,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="D2766" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54634,10 +54620,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="D2767" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54648,10 +54634,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
       <c r="D2768" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54662,10 +54648,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="D2769" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54704,11 +54690,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="D2772" t="s">
-        <v>5180</v>
-      </c>
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5870">
   <si>
     <t>translation_group</t>
   </si>
@@ -10085,7 +10085,7 @@
     <t>Seo-inställningar</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Fyll i fälten för maximalt resultat när du hittar din webbplats i sökmotorer.</t>
@@ -17047,6 +17047,598 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Välkommen till Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Använd Microweber för att bygga din webbplats, webbshop eller blogg.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Skapa och redigera innehåll, sälj online, hantera beställningar och kunder.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Avlägsna</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Du använder den här mallen.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Ändringen påverkar endast den aktuella sidan.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Tillåt flera mallar</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Om du tillåter flera mallar kan du använda olika mallar när du skapar nya sidor.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Systemets e-postwebbplatsinställningar</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Leverera meddelanden relaterade till ny registrering, återställning av lösenord och andra systemfunktioner.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Från e-postadress</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Ditt webbplatsnamn</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Allmänna inställningar för e-postleverantörer</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Ställ in din e-postleverantör.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Den allmänna e-postleverantören kommer att leverera alla meddelanden relaterade till webbplatsen. Inklusive systemmeddelanden och kontaktformulärmeddelanden.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Webbplatslogotyp</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Välj en logotyp för din webbplats.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Ladda upp logotyp</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Webbplats Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Ändrar standardspråk ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Rensa cacheminnet ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installera flerspråkig modul</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registrera användare kan automatiskt få ett automatiskt e-postmeddelande från dig. Se inställningarna och skicka dina meddelanden.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Skicka e-post om ny användarregistrering till administratörsanvändare</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Vill du att administratörer ska få ett e-postmeddelande när ny användare registreras?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber är gratis öppen källkod dra och släpp webbplats byggare och CMS. Det är under MIT-licens och vi använder Laravel PHP-ramverk</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>En skjutreglage</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Leverans till adress</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Hämtning från adress</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globala inställningar</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Du har inte system-e-post och smtp-installation.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Ställ in dina systeminställningar här.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globala kontaktformulärsinställningar</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Alternativ för att skicka e-post</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Global avsändare</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Använd anpassade avsändarinställningar</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Använd anpassade avsändarinställningar för globala kontaktformulär.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Som standard använder vi e-postinställningar för webbplatsens system.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Du kan ändra systemets e-postinställningar här.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globala mottagare</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Skicka uppgifter om kontaktformulär till globala mottagare när de skickas in</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Till e-postadresser</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Mottagarnas e-postadress separerad med koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Kontakta din webbhotell för att aktivera PHP SOAP-tillägg.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 månader sedan</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Ta bort favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Beställnings</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProdukterV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tidslinje</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Vit etikett WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Standardlayouter och element</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Pilar Lista</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Kontrollerad lista</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Bakgrundstext</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titel med text</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikon med text</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Två textkolumner</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Två textkolumner med ikon och titel</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Bild med titel och text</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Text med bild och titel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Aktivera kommentarer</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-inställningar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ställ in dina captcha-inställningar från </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Aktuella inställningar för kontaktformulär</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Kontaktformulärets namn</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Vad heter detta kontaktformulär?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Mottagare</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Skicka kontaktformulärdata till anpassade mottagare när det skickas</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Använd anpassade mottagarinställningar för det aktuella kontaktformuläret.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Som standard använder vi kontaktformulärets globala inställningar.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Du kan ändra kontaktformulärets globala inställningar här.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Svara automatiskt till användaren</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktivera autosvarmeddelande till användaren</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Tillåt användare att få "Tack till e-post efter prenumeration."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Autosvarar motivet</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Med autosvar kan du ställa in automatiska svar på inkommande e-post</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Skicka e-post automatiskt till användaren</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Autosvar anpassad avsändare</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Använd anpassade avsändarinställningar för det aktuella kontaktformuläret.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Autosvar från e-postadress</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Svara automatiskt från namn</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Svara automatiskt på e-post</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>När användaren får autosvarmeddelandet kan de svara tillbaka för att svara på e-post.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Automatiskt svara på e-postbilagor</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Om du vill bifoga bilder måste du ladda upp dem till galleriet från "Lägg till media"</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Du har inga inlägg ännu</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Skapa ditt första inlägg just nu.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Skapa ett inlägg</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Hur man skriver produktbeskrivningar som säljer
+                                                    En av de bästa sakerna du kan göra för att göra din butik framgångsrik är att investera lite tid i att skriva bra produktbeskrivningar. Du vill tillhandahålla detaljerad men ändå kortfattad information som kommer att locka potentiella kunder att köpa.
+                                                    Tänk som en konsument
+                                                    Tänk på vad du som konsument vill veta och inkludera sedan dessa funktioner i din beskrivning. För kläder: material och passform. För mat: ingredienser och hur den bereddes. Kulor är dina vänner när du listar
+                                                   funktioner - försök att
+                                                            begränsa var och en till 5-8 ord.</t>
   </si>
 </sst>
 </file>
@@ -17385,7 +17977,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67693,6 +68285,1757 @@
         <v>3595</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5677</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5681</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4901</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5867</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6165">
   <si>
     <t>translation_group</t>
   </si>
@@ -17639,6 +17639,891 @@
                                                     Tänk på vad du som konsument vill veta och inkludera sedan dessa funktioner i din beskrivning. För kläder: material och passform. För mat: ingredienser och hur den bereddes. Kulor är dina vänner när du listar
                                                    funktioner - försök att
                                                             begränsa var och en till 5-8 ord.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Admin språk</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Begränsa</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Kodredigerare</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blogg</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titlar</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titlar 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titlar 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titlar 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titlar 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titlar 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titlar 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titlar 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titlar 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>textblock</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Textblock 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Textblock 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Textblock 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Textblock 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Textblock 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Textblock 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Textblock 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Textblock 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Textblock 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Textblock 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Textblock 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Textblock 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Textblock 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Textblock 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Textblock 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>funktioner</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Funktioner 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Funktioner 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Funktioner 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Funktioner 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>rutnät</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>meny</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Meny - hud-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Meny - hud-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Meny - hud-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Meny - hud-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Meny - hud-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>sidfötter</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Sidfötter 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Sidfötter 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Sidfötter 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Sidfötter 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>prissättning</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Prissättning 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Standardlayouter</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Inget innehåll här</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Anpassade fält sparas</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Befintliga fält</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Välj bland dina befintliga fält nedan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lägg till nya fält</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Lägg till ett nytt anpassat fält från listan nedan</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Dina fält</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista över dina tillagda anpassade fält</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">upprepa vertikalt </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Typsnittsfamilj</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Täcka över</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Blandningsläge</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Behållare</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Behållartyp</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animationer</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Laddar om stilar</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Länkar till</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Förhandsgranska paket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Använda sig av</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nuvarande</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Ordna om</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systemet</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Omdirigering av webbläsare</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Fristående uppdatering</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Du behöver licensnyckel för att installera detta paket</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Detta paket är premium och du måste ha en licensnyckel för att installera det</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Du behöver licensnyckel</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licens aktiverad</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Laddar om sidan</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licensen är inte aktiverad</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Systemuppdateringar</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Sök efter systemuppdateringar</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Tillbaka till listan</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorin måste ha ett namn</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Är kategorin dold?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Om du ställer in detta till JA kommer denna kategori att döljas från webbplatsen</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Omnämnande</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Din vagn är tom.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Resultat hittades</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Om du väljer Procent från det valda fältet, kommer det att beräknas automatiskt från priset och erbjudandet för produkten.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Fortsätt till utcheckningen</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Visar</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>resultat)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sidrubrik - Höger brödsmula</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sidrubrik - Vänster brödsmula</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Leverans och returer</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Ungefär 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Ungefär 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Ungefär 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Hem 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Hem 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Du måste klicka på knappen Använd mall för att ändra din mall</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Sök efter kriterier</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Beställnings-ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Datum från</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Ställ in beställningarna från datum</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Dejta till</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Ställ in beställningarna till datum</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Beställningsbelopp från</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Visa beställningen med minimibelopp</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Beställningsbelopp till</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Visa beställningen med maxbelopp</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Sök efter produkter...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Betalningsstatus</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Gratis sökning på telefon, namn, e-post mm...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Skicka in detta kriterium</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Återställ filter</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Exportera allt</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Välj sortering</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Orderdatum</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Ny &gt; Gammal]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Gammal &gt; Ny]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Hög &gt; Låg]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Låg &gt; Hög]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>beställningen slutförd</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>översättningar från flerspråksmodulen har hittats i din databas.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Varning! Att ändra standardspråket kan bryta översättningar på din webbplats.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Är du säker på att du vill fortsätta?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Varning! Det ändrade standardspråket kanske kommer att bryta din webbplats.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Frakt detaljer</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Frakttyp</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>beställningen är inte klar ännu</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>beställningen är klar</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Skapad vid</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Uppdaterad kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snabbtitt </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Byt ut språkvärden</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Översättningar importeras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Översättningar hittades inte i databasen. Vill du importera översättningar? </t>
   </si>
 </sst>
 </file>
@@ -17662,10 +18547,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17676,7 +18558,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17977,7 +18859,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70039,8 +70921,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5867</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6056</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6056</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>3929</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70052,5 +73568,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sv_SE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5975">
   <si>
     <t>translation_group</t>
   </si>
@@ -17058,7 +17058,7 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Använd Microweber för att bygga din webbplats, webbshop eller blogg.</t>
+    <t>Använd Microweber för att bygga din webbplats, onlinebutik eller blogg.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17085,7 +17085,7 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Ändringen påverkar endast den aktuella sidan.</t>
+    <t>Ändringen kommer endast att påverka den aktuella sidan.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -17097,19 +17097,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Om du tillåter flera mallar kan du använda olika mallar när du skapar nya sidor.</t>
+    <t>Om du tillåter flera mallar kommer du att kunna använda olika mallar när du skapar en ny sida.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Systemets e-postwebbplatsinställningar</t>
+    <t>Systeminställningar för e-postwebbplats</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Leverera meddelanden relaterade till ny registrering, återställning av lösenord och andra systemfunktioner.</t>
+    <t>Leverera meddelanden relaterade till ny registrering, lösenordsåterställning och andra systemfunktioner.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17127,13 +17127,13 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Allmänna inställningar för e-postleverantörer</t>
+    <t>Allmänna inställningar för e-postleverantör</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Ställ in din e-postleverantör.</t>
+    <t>Konfigurera din e-postleverantör.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
@@ -17145,7 +17145,7 @@
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Webbplatslogotyp</t>
+    <t>Webbplatsens logotyp</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17169,13 +17169,13 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Ändrar standardspråk ..</t>
+    <t>Ändra standardspråk..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Rensa cacheminnet ..</t>
+    <t>Rensa cache..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17187,16 +17187,19 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Användare kan registrera sig med tillfälliga e-postmeddelanden som - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Registrera användare kan automatiskt få ett automatiskt e-postmeddelande från dig. Se inställningarna och skicka dina meddelanden.</t>
+    <t>Registrera användare kan automatiskt få ett automatiskt e-postmeddelande från dig. Se inställningarna och lägg upp dina meddelanden.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Skicka e-post om ny användarregistrering till administratörsanvändare</t>
+    <t>Skicka e-post om ny användarregistrering till adminanvändare</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
@@ -17208,7 +17211,7 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber är gratis öppen källkod dra och släpp webbplats byggare och CMS. Det är under MIT-licens och vi använder Laravel PHP-ramverk</t>
+    <t>Microweber är gratis dra och släpp webbplatsbyggare och CMS med öppen källkod. Det är under MIT-licens och vi använder Laravel PHP-ramverk</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17241,7 +17244,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Du har inte system-e-post och smtp-installation.</t>
+    <t>Du har inte konfigurerat system för e-post och smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17253,7 +17256,7 @@
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Globala kontaktformulärsinställningar</t>
+    <t>Globala kontaktformulärinställningar</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17277,13 +17280,13 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Använd anpassade avsändarinställningar för globala kontaktformulär.</t>
+    <t>Använd anpassade avsändarinställningar för de globala kontaktformulären.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Som standard använder vi e-postinställningar för webbplatsens system.</t>
+    <t>Som standard kommer vi att använda webbplatsens e-postinställningar.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17301,7 +17304,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Skicka uppgifter om kontaktformulär till globala mottagare när de skickas in</t>
+    <t>Skicka kontaktformulärdata till globala mottagare när den skickas in</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17319,7 +17322,7 @@
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Kontakta din webbhotell för att aktivera PHP SOAP-tillägg.</t>
+    <t>Kontakta din värdleverantör för att aktivera PHP SOAP-tillägget.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17370,12 +17373,12 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Vit etikett WHMCS</t>
-  </si>
-  <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Antalet synliga vittnesmål</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17469,10 +17472,13 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Lägg till/redigera fält i formuläret med hjälp av de anpassade fälten</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Aktuella inställningar för kontaktformulär</t>
+    <t>Aktuella kontaktformulärinställningar</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17484,7 +17490,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Vad heter detta kontaktformulär?</t>
+    <t>Vad heter det här kontaktformuläret?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17496,7 +17502,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Skicka kontaktformulärdata till anpassade mottagare när det skickas</t>
+    <t>Skicka kontaktformulärdata till anpassade mottagare när den skickas in</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17508,7 +17514,7 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Som standard använder vi kontaktformulärets globala inställningar.</t>
+    <t>Som standard kommer vi att använda globala inställningar för kontaktformulär.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17520,25 +17526,25 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Svara automatiskt till användaren</t>
+    <t>Autosvar meddelande till användare</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Aktivera autosvarmeddelande till användaren</t>
+    <t>Aktivera autosvar meddelande till användare</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Tillåt användare att få "Tack till e-post efter prenumeration."</t>
+    <t>Tillåt användare att ta emot "Tack-e-postmeddelanden efter prenumeration."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Autosvarar motivet</t>
+    <t>Autosvar ämne</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
@@ -17553,7 +17559,7 @@
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Skicka e-post automatiskt till användaren</t>
+    <t>Autosvar på e-post som skickas tillbaka till användaren</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
@@ -17577,7 +17583,7 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Svara automatiskt från namn</t>
+    <t>Autosvar från namn</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
@@ -17589,13 +17595,13 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>När användaren får autosvarmeddelandet kan de svara tillbaka för att svara på e-post.</t>
+    <t>När användaren får autosvarsmeddelandet kan de svara tillbaka för att svara på e-post.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automatiskt svara på e-postbilagor</t>
+    <t>Svara automatiskt på e-postbilagor</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
@@ -17613,7 +17619,7 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Skapa ditt första inlägg just nu.</t>
+    <t>Skapa ditt första inlägg nu.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17634,10 +17640,10 @@
   </si>
   <si>
     <t>Hur man skriver produktbeskrivningar som säljer
-                                                    En av de bästa sakerna du kan göra för att göra din butik framgångsrik är att investera lite tid i att skriva bra produktbeskrivningar. Du vill tillhandahålla detaljerad men ändå kortfattad information som kommer att locka potentiella kunder att köpa.
+                                                    En av de bästa sakerna du kan göra för att göra din butik framgångsrik är att investera lite tid i att skriva bra produktbeskrivningar. Du vill ge detaljerad men koncis information som kommer att locka potentiella kunder att köpa.
                                                     Tänk som en konsument
-                                                    Tänk på vad du som konsument vill veta och inkludera sedan dessa funktioner i din beskrivning. För kläder: material och passform. För mat: ingredienser och hur den bereddes. Kulor är dina vänner när du listar
-                                                   funktioner - försök att
+                                                    Tänk på vad du som konsument skulle vilja veta och inkludera sedan dessa funktioner i din beskrivning. För kläder: material och passform. För mat: ingredienser och hur det tillagades. Punkter är dina vänner när du listar
+                                                   funktioner – försök att
                                                             begränsa var och en till 5-8 ord.</t>
   </si>
   <si>
@@ -17647,349 +17653,259 @@
     <t>Admin språk</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Lägg till undersida</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategori raderad</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Innehåll raderat</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Sök kategorier</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Skapa innehåll</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Några</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Begränsa</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Är du säker på att du vill ta bort?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Du har inga produkter i</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Tillbaka till</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategorier</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Anpassade fält sparas</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Befintliga fält</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Välj bland dina befintliga fält nedan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lägg till nya fält</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Lägg till ett nytt anpassat fält från listan nedan</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Dina fält</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista över dina tillagda anpassade fält</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systemet</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blogg</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Webbläsaromdirigering</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Fristående uppdatering</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Förhandsgranska paket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Använda sig av</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Nuvarande</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>uttrycka</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Första klass</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klicka &amp; Samla</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video bakgrund</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Du kan aktivera Multi-language-modulen för att använda flera språk</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Flerspråksläge</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivera flerspråksläget för att ha flera språk för ditt innehåll.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Översättningar importeras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Översättningar hittades inte i databasen. Vill du importera översättningar? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Din vagn är tom.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Kodredigerare</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Blogg</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titlar</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titlar 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titlar 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titlar 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titlar 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titlar 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titlar 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titlar 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titlar 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>textblock</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Textblock 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Textblock 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Textblock 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Textblock 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Textblock 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Textblock 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Textblock 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Textblock 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Textblock 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Textblock 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Textblock 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Textblock 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Textblock 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Textblock 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Textblock 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>funktioner</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Funktioner 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Funktioner 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Funktioner 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Funktioner 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>rutnät</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>meny</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Meny - hud-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Meny - hud-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Meny - hud-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Meny - hud-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Meny - hud-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>sidfötter</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Sidfötter 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Sidfötter 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Sidfötter 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Sidfötter 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>prissättning</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Prissättning 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Standardlayouter</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Inget innehåll här</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Anpassade fält sparas</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Befintliga fält</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Välj bland dina befintliga fält nedan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lägg till nya fält</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Lägg till ett nytt anpassat fält från listan nedan</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Dina fält</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lista över dina tillagda anpassade fält</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Ny import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18038,492 +17954,6 @@
   </si>
   <si>
     <t>Laddar om stilar</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Länkar till</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Förhandsgranska paket</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Använda sig av</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Nuvarande</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Ordna om</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Systemet</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Omdirigering av webbläsare</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Fristående uppdatering</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Du behöver licensnyckel för att installera detta paket</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Detta paket är premium och du måste ha en licensnyckel för att installera det</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Du behöver licensnyckel</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licens aktiverad</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Laddar om sidan</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licensen är inte aktiverad</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Systemuppdateringar</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Sök efter systemuppdateringar</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Tillbaka till listan</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorin måste ha ett namn</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Är kategorin dold?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Om du ställer in detta till JA kommer denna kategori att döljas från webbplatsen</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Omnämnande</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Din vagn är tom.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Resultat hittades</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Om du väljer Procent från det valda fältet, kommer det att beräknas automatiskt från priset och erbjudandet för produkten.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Fortsätt till utcheckningen</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Visar</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>av</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultat)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sidrubrik - Höger brödsmula</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sidrubrik - Vänster brödsmula</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Leverans och returer</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Ungefär 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Ungefär 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Ungefär 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Hem 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Hem 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Du måste klicka på knappen Använd mall för att ändra din mall</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Sök efter kriterier</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Beställnings-ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Datum från</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Ställ in beställningarna från datum</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Dejta till</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Ställ in beställningarna till datum</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Beställningsbelopp från</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Visa beställningen med minimibelopp</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Beställningsbelopp till</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Visa beställningen med maxbelopp</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Sök efter produkter...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Betalningsstatus</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Gratis sökning på telefon, namn, e-post mm...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Skicka in detta kriterium</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Återställ filter</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Exportera allt</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Välj sortering</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Orderdatum</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Ny &gt; Gammal]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Gammal &gt; Ny]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Hög &gt; Låg]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Låg &gt; Hög]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>beställningen slutförd</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>översättningar från flerspråksmodulen har hittats i din databas.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Varning! Att ändra standardspråket kan bryta översättningar på din webbplats.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Är du säker på att du vill fortsätta?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Varning! Det ändrade standardspråket kanske kommer att bryta din webbplats.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Frakt detaljer</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Frakttyp</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>beställningen är inte klar ännu</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>beställningen är klar</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Skapad vid</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Uppdaterad kl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snabbtitt </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Byt ut språkvärden</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Översättningar importeras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Översättningar hittades inte i databasen. Vill du importera översättningar? </t>
   </si>
 </sst>
 </file>
@@ -18859,7 +18289,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69572,7 +69002,7 @@
         <v>5721</v>
       </c>
       <c r="D2983" t="s">
-        <v>3806</v>
+        <v>5722</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69586,10 +69016,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="D2984" t="s">
-        <v>5723</v>
+        <v>5724</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69603,10 +69033,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5724</v>
+        <v>5725</v>
       </c>
       <c r="D2985" t="s">
-        <v>5725</v>
+        <v>5726</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69620,10 +69050,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
       <c r="D2986" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69637,10 +69067,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="D2987" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69654,10 +69084,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5730</v>
+        <v>5731</v>
       </c>
       <c r="D2988" t="s">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69671,10 +69101,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="D2989" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69688,10 +69118,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="D2990" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69705,10 +69135,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="D2991" t="s">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69722,7 +69152,7 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="D2992" t="s">
         <v>2383</v>
@@ -69739,10 +69169,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D2993" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69756,10 +69186,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
       <c r="D2994" t="s">
-        <v>5742</v>
+        <v>5743</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69773,10 +69203,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="D2995" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69790,10 +69220,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="D2996" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69807,10 +69237,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="D2997" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69824,10 +69254,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="D2998" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69841,10 +69271,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="D2999" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69858,10 +69288,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="D3000" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69875,10 +69305,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="D3001" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69892,10 +69322,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="D3002" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69909,10 +69339,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="D3003" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69926,10 +69356,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="D3004" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69943,10 +69373,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="D3005" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69960,10 +69390,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="D3006" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69977,10 +69407,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="D3007" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69994,10 +69424,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="D3008" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70011,7 +69441,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="D3009" t="s">
         <v>3197</v>
@@ -70028,10 +69458,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="D3010" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70045,10 +69475,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="D3011" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70062,10 +69492,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="D3012" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70079,10 +69509,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D3013" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70096,10 +69526,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="D3014" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70113,10 +69543,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D3015" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70130,7 +69560,7 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="D3016" t="s">
         <v>5783</v>
@@ -70150,7 +69580,7 @@
         <v>5784</v>
       </c>
       <c r="D3017" t="s">
-        <v>3293</v>
+        <v>5785</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70164,7 +69594,7 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="D3018" t="s">
         <v>2877</v>
@@ -70181,7 +69611,7 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="D3019" t="s">
         <v>3589</v>
@@ -70198,7 +69628,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="D3020" t="s">
         <v>1557</v>
@@ -70215,10 +69645,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3021" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70232,10 +69662,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3022" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70249,10 +69679,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D3023" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70266,10 +69696,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D3024" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70283,10 +69713,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D3025" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70300,10 +69730,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3026" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70317,10 +69747,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3027" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70334,10 +69764,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3028" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70351,10 +69781,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D3029" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70368,10 +69798,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3030" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70385,7 +69815,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3031" t="s">
         <v>1111</v>
@@ -70402,10 +69832,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="D3032" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70419,10 +69849,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="D3033" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70436,10 +69866,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="D3034" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70453,10 +69883,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="D3035" t="s">
-        <v>4901</v>
+        <v>5817</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70470,10 +69900,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="D3036" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70487,10 +69917,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="D3037" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70504,10 +69934,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="D3038" t="s">
-        <v>5821</v>
+        <v>5823</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70521,10 +69951,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="D3039" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70538,10 +69968,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="D3040" t="s">
-        <v>5825</v>
+        <v>5827</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70555,10 +69985,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="D3041" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70572,10 +70002,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="D3042" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70589,10 +70019,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="D3043" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70606,10 +70036,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="D3044" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70623,10 +70053,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="D3045" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70640,10 +70070,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="D3046" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70657,10 +70087,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="D3047" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70674,10 +70104,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="D3048" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70691,10 +70121,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="D3049" t="s">
-        <v>3096</v>
+        <v>804</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70708,10 +70138,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="D3050" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70725,10 +70155,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="D3051" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70742,10 +70172,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D3052" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70759,10 +70189,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="D3053" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70776,10 +70206,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="D3054" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70793,10 +70223,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="D3055" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70810,10 +70240,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="D3056" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70827,10 +70257,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="D3057" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70844,10 +70274,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="D3058" t="s">
-        <v>5860</v>
+        <v>5862</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70861,10 +70291,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5861</v>
+        <v>5863</v>
       </c>
       <c r="D3059" t="s">
-        <v>5862</v>
+        <v>5864</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70878,10 +70308,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5863</v>
+        <v>5865</v>
       </c>
       <c r="D3060" t="s">
-        <v>5864</v>
+        <v>5866</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70895,10 +70325,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5865</v>
+        <v>5867</v>
       </c>
       <c r="D3061" t="s">
-        <v>5866</v>
+        <v>5868</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70909,13 +70339,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="C3062" t="s">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="D3062" t="s">
-        <v>5869</v>
+        <v>5871</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70929,10 +70359,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
       <c r="D3063" t="s">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70946,10 +70376,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="D3064" t="s">
-        <v>5873</v>
+        <v>4216</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70963,10 +70393,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="D3065" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70980,10 +70410,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="D3066" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70997,10 +70427,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="D3067" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71014,10 +70444,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="D3068" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71031,10 +70461,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="D3069" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71048,10 +70478,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="D3070" t="s">
-        <v>5885</v>
+        <v>2431</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71085,7 +70515,7 @@
         <v>5888</v>
       </c>
       <c r="D3072" t="s">
-        <v>5889</v>
+        <v>5888</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71099,10 +70529,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="D3073" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71116,10 +70546,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="D3074" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71133,10 +70563,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="D3075" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71150,10 +70580,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="D3076" t="s">
-        <v>5897</v>
+        <v>5895</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71167,10 +70597,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="D3077" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71184,10 +70614,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="D3078" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71201,10 +70631,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="D3079" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71218,10 +70648,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="D3080" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71235,10 +70665,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="D3081" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71252,10 +70682,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
       <c r="D3082" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71269,10 +70699,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5910</v>
+        <v>5908</v>
       </c>
       <c r="D3083" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71286,10 +70716,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="D3084" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71303,10 +70733,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="D3085" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71320,10 +70750,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="D3086" t="s">
-        <v>5917</v>
+        <v>5914</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71337,10 +70767,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5918</v>
+        <v>5915</v>
       </c>
       <c r="D3087" t="s">
-        <v>5919</v>
+        <v>5916</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71354,10 +70784,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5920</v>
+        <v>5917</v>
       </c>
       <c r="D3088" t="s">
-        <v>5921</v>
+        <v>5918</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71371,10 +70801,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5922</v>
+        <v>5919</v>
       </c>
       <c r="D3089" t="s">
-        <v>5923</v>
+        <v>5920</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71388,10 +70818,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5924</v>
+        <v>5921</v>
       </c>
       <c r="D3090" t="s">
-        <v>5925</v>
+        <v>5921</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71405,10 +70835,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5926</v>
+        <v>5922</v>
       </c>
       <c r="D3091" t="s">
-        <v>5927</v>
+        <v>5922</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71422,10 +70852,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5928</v>
+        <v>5923</v>
       </c>
       <c r="D3092" t="s">
-        <v>5929</v>
+        <v>5924</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71439,10 +70869,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5930</v>
+        <v>5925</v>
       </c>
       <c r="D3093" t="s">
-        <v>5931</v>
+        <v>5926</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71456,10 +70886,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5932</v>
+        <v>5927</v>
       </c>
       <c r="D3094" t="s">
-        <v>5933</v>
+        <v>5927</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71473,10 +70903,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5934</v>
+        <v>5928</v>
       </c>
       <c r="D3095" t="s">
-        <v>5935</v>
+        <v>5929</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71490,10 +70920,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5936</v>
+        <v>5930</v>
       </c>
       <c r="D3096" t="s">
-        <v>5937</v>
+        <v>5931</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71507,10 +70937,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5938</v>
+        <v>5932</v>
       </c>
       <c r="D3097" t="s">
-        <v>5939</v>
+        <v>5933</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71524,10 +70954,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5940</v>
+        <v>5934</v>
       </c>
       <c r="D3098" t="s">
-        <v>5941</v>
+        <v>5935</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71541,10 +70971,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5942</v>
+        <v>5936</v>
       </c>
       <c r="D3099" t="s">
-        <v>5943</v>
+        <v>5937</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71558,10 +70988,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5944</v>
+        <v>5938</v>
       </c>
       <c r="D3100" t="s">
-        <v>5945</v>
+        <v>5939</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71575,10 +71005,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5946</v>
+        <v>5940</v>
       </c>
       <c r="D3101" t="s">
-        <v>5947</v>
+        <v>1499</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71592,10 +71022,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5948</v>
+        <v>5941</v>
       </c>
       <c r="D3102" t="s">
-        <v>5949</v>
+        <v>5942</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71609,10 +71039,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5950</v>
+        <v>5943</v>
       </c>
       <c r="D3103" t="s">
-        <v>5951</v>
+        <v>5944</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71626,10 +71056,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5952</v>
+        <v>5945</v>
       </c>
       <c r="D3104" t="s">
-        <v>5953</v>
+        <v>5946</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71643,10 +71073,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5954</v>
+        <v>5947</v>
       </c>
       <c r="D3105" t="s">
-        <v>5955</v>
+        <v>5948</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71660,10 +71090,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5956</v>
+        <v>5949</v>
       </c>
       <c r="D3106" t="s">
-        <v>5957</v>
+        <v>5950</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71677,10 +71107,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5958</v>
+        <v>5951</v>
       </c>
       <c r="D3107" t="s">
-        <v>5959</v>
+        <v>5952</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71694,10 +71124,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5960</v>
+        <v>5953</v>
       </c>
       <c r="D3108" t="s">
-        <v>5961</v>
+        <v>5954</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71710,11 +71140,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5962</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1275</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71727,11 +71157,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5956</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71745,10 +71175,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5963</v>
+        <v>5957</v>
       </c>
       <c r="D3111" t="s">
-        <v>5963</v>
+        <v>5958</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71762,10 +71192,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5964</v>
+        <v>5959</v>
       </c>
       <c r="D3112" t="s">
-        <v>5964</v>
+        <v>5960</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71779,10 +71209,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5965</v>
+        <v>5961</v>
       </c>
       <c r="D3113" t="s">
-        <v>5966</v>
+        <v>5962</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71796,10 +71226,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5967</v>
+        <v>5963</v>
       </c>
       <c r="D3114" t="s">
-        <v>5968</v>
+        <v>5964</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71813,10 +71243,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5969</v>
+        <v>5965</v>
       </c>
       <c r="D3115" t="s">
-        <v>5970</v>
+        <v>5966</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71830,10 +71260,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5971</v>
+        <v>5967</v>
       </c>
       <c r="D3116" t="s">
-        <v>5972</v>
+        <v>5968</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71847,10 +71277,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5973</v>
+        <v>5969</v>
       </c>
       <c r="D3117" t="s">
-        <v>5974</v>
+        <v>5970</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71864,10 +71294,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5975</v>
+        <v>5971</v>
       </c>
       <c r="D3118" t="s">
-        <v>5976</v>
+        <v>5972</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71881,1678 +71311,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5977</v>
+        <v>5973</v>
       </c>
       <c r="D3119" t="s">
-        <v>5978</v>
+        <v>5974</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5980</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5981</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5982</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5983</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5984</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5985</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5986</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5987</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5988</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5990</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2705</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6046</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5867</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6056</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6056</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>3145</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>3929</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
